--- a/scripts/metadata-tdc.xlsx
+++ b/scripts/metadata-tdc.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\SCED-tools\scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB3DC3C-4869-4973-9593-B8B01E95B3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$264</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="883">
   <si>
     <t>ID</t>
   </si>
@@ -36,7 +46,7 @@
     <t>11501</t>
   </si>
   <si>
-    <t>Scenario</t>
+    <t>ScenarioReference</t>
   </si>
   <si>
     <t>One Last Job</t>
@@ -1890,42 +1900,6 @@
     <t>This card is a story weakness. These are all the same aside from card number.</t>
   </si>
   <si>
-    <t>11584</t>
-  </si>
-  <si>
-    <t>{
-  "id": "11584",
-  "type": "Treachery",
-  "traits": "Curse. Hazard.",
-  "weakness": true,
-  "cycle": "The Drowned City"
-}</t>
-  </si>
-  <si>
-    <t>11585</t>
-  </si>
-  <si>
-    <t>{
-  "id": "11585",
-  "type": "Treachery",
-  "traits": "Curse. Hazard.",
-  "weakness": true,
-  "cycle": "The Drowned City"
-}</t>
-  </si>
-  <si>
-    <t>11586</t>
-  </si>
-  <si>
-    <t>{
-  "id": "11586",
-  "type": "Treachery",
-  "traits": "Curse. Hazard.",
-  "weakness": true,
-  "cycle": "The Drowned City"
-}</t>
-  </si>
-  <si>
     <t>11587</t>
   </si>
   <si>
@@ -3768,16 +3742,6 @@
     <t>These cards are identical despite having different set numbers.</t>
   </si>
   <si>
-    <t>11668</t>
-  </si>
-  <si>
-    <t>{
-    "id": "11668",
-    "type": "Treachery",
-    "traits": "Scheme. Terror."
-}</t>
-  </si>
-  <si>
     <t>11669</t>
   </si>
   <si>
@@ -4269,14 +4233,14 @@
     <t>Blue encounter card back.</t>
   </si>
   <si>
-    <t>11688b</t>
+    <t>11688c</t>
   </si>
   <si>
     <t>The Doom of Arkham Pt II</t>
   </si>
   <si>
     <t>{
-  "id": "11688b",
+  "id": "11688c",
   "type": "ScenarioReference",
   "class": "Mythos",
   "tokens": {
@@ -4347,21 +4311,21 @@
   </si>
   <si>
     <t>{
-    "id": "11691",
+    "id": "11691a",
     "type": "Act",
     "class": "Mythos",
     "cycle": "The Drowned City"
 }</t>
   </si>
   <si>
-    <t>11691b</t>
+    <t>11691c</t>
   </si>
   <si>
     <t>The Final Seal</t>
   </si>
   <si>
     <t>{
-    "id": "11691",
+    "id": "11691c",
     "type": "Agenda",
     "class": "Mythos",
     "doomThreshold": 10,
@@ -4824,19 +4788,6 @@
     <t>This card and 11718 are identical.</t>
   </si>
   <si>
-    <t>11718</t>
-  </si>
-  <si>
-    <t>{
-  "id": "11718",
-  "type": "Treachery",
-  "traits": "Power."
-}</t>
-  </si>
-  <si>
-    <t>This card and 11717 are identical.</t>
-  </si>
-  <si>
     <t>11719</t>
   </si>
   <si>
@@ -5630,24 +5581,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
@@ -5657,7 +5611,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -5667,7 +5621,13 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF284E3F"/>
@@ -5681,6 +5641,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -5695,6 +5656,7 @@
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -5709,6 +5671,7 @@
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -5723,6 +5686,7 @@
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -5737,6 +5701,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -5751,6 +5716,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -5765,173 +5731,139 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF356854"/>
           <bgColor rgb="FF356854"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Sheet1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F269" displayName="Table1" name="Table1" id="1">
-  <autoFilter ref="$A$1:$F$269"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F264">
+  <autoFilter ref="A1:F264" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn name="ID" id="1"/>
-    <tableColumn name="Type" id="2"/>
-    <tableColumn name="Card Name" id="3"/>
-    <tableColumn name="Card Description" id="4"/>
-    <tableColumn name="Metadata" id="5"/>
-    <tableColumn name="Comments" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Card Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Card Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Metadata"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comments"/>
   </tableColumns>
-  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -6121,31 +6053,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.38"/>
-    <col customWidth="1" min="2" max="2" width="14.75"/>
-    <col customWidth="1" min="3" max="3" width="22.88"/>
-    <col customWidth="1" min="4" max="4" width="27.88"/>
-    <col customWidth="1" min="5" max="5" width="11.13"/>
-    <col customWidth="1" min="6" max="6" width="78.5"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6165,7 +6100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -6181,7 +6116,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -6191,7 +6126,7 @@
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -6199,7 +6134,7 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -6209,7 +6144,7 @@
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -6217,7 +6152,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -6227,47 +6162,47 @@
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -6275,17 +6210,17 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -6293,17 +6228,17 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -6311,35 +6246,35 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -6347,48 +6282,48 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="8"/>
@@ -6397,14 +6332,14 @@
       </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="8"/>
@@ -6413,14 +6348,14 @@
       </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="8"/>
@@ -6429,7 +6364,7 @@
       </c>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -6445,23 +6380,23 @@
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>70</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
@@ -6471,7 +6406,7 @@
       <c r="C19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -6479,7 +6414,7 @@
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>75</v>
       </c>
@@ -6489,7 +6424,7 @@
       <c r="C20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -6497,125 +6432,125 @@
       </c>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>98</v>
       </c>
@@ -6629,11 +6564,11 @@
       <c r="E27" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>101</v>
       </c>
@@ -6647,11 +6582,11 @@
       <c r="E28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>104</v>
       </c>
@@ -6665,11 +6600,11 @@
       <c r="E29" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>107</v>
       </c>
@@ -6683,11 +6618,11 @@
       <c r="E30" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>110</v>
       </c>
@@ -6701,11 +6636,11 @@
       <c r="E31" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>113</v>
       </c>
@@ -6719,11 +6654,11 @@
       <c r="E32" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>117</v>
       </c>
@@ -6737,11 +6672,11 @@
       <c r="E33" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>121</v>
       </c>
@@ -6755,9 +6690,9 @@
       <c r="E34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>124</v>
       </c>
@@ -6771,9 +6706,9 @@
       <c r="E35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>127</v>
       </c>
@@ -6787,11 +6722,11 @@
       <c r="E36" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>131</v>
       </c>
@@ -6805,9 +6740,9 @@
       <c r="E37" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>134</v>
       </c>
@@ -6817,17 +6752,17 @@
       <c r="C38" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>138</v>
       </c>
@@ -6837,15 +6772,15 @@
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>141</v>
       </c>
@@ -6855,7 +6790,7 @@
       <c r="C40" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -6863,7 +6798,7 @@
       </c>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>144</v>
       </c>
@@ -6873,17 +6808,17 @@
       <c r="C41" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>146</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>149</v>
       </c>
@@ -6897,51 +6832,51 @@
       <c r="E42" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>158</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>160</v>
       </c>
@@ -6951,17 +6886,17 @@
       <c r="C45" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="8" t="s">
         <v>162</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>164</v>
       </c>
@@ -6971,17 +6906,17 @@
       <c r="C46" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>167</v>
       </c>
@@ -6991,17 +6926,17 @@
       <c r="C47" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>169</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>171</v>
       </c>
@@ -7011,135 +6946,135 @@
       <c r="C48" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="8" t="s">
         <v>172</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="10"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>183</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="7" t="s">
         <v>187</v>
       </c>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="8" t="s">
         <v>190</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="7" t="s">
         <v>195</v>
       </c>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -7147,17 +7082,17 @@
       </c>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -7165,17 +7100,17 @@
       </c>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -7183,17 +7118,17 @@
       </c>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -7201,17 +7136,17 @@
       </c>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -7219,213 +7154,213 @@
       </c>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="8" t="s">
         <v>217</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="8" t="s">
         <v>221</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="14" t="s">
         <v>224</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="14" t="s">
         <v>227</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="14" t="s">
         <v>230</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="14" t="s">
         <v>233</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>235</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="14" t="s">
         <v>236</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>238</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>241</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>246</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="14" t="s">
         <v>247</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>249</v>
       </c>
@@ -7439,11 +7374,11 @@
       <c r="E71" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>252</v>
       </c>
@@ -7457,18 +7392,18 @@
       <c r="E72" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="14" t="s">
         <v>256</v>
       </c>
       <c r="D73" s="8"/>
@@ -7477,14 +7412,14 @@
       </c>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="14" t="s">
         <v>259</v>
       </c>
       <c r="D74" s="8"/>
@@ -7493,14 +7428,14 @@
       </c>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="14" t="s">
         <v>262</v>
       </c>
       <c r="D75" s="8"/>
@@ -7509,14 +7444,14 @@
       </c>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="14" t="s">
         <v>265</v>
       </c>
       <c r="D76" s="8"/>
@@ -7525,14 +7460,14 @@
       </c>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>267</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="14" t="s">
         <v>268</v>
       </c>
       <c r="D77" s="8"/>
@@ -7541,14 +7476,14 @@
       </c>
       <c r="F77" s="9"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>270</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="14" t="s">
         <v>271</v>
       </c>
       <c r="D78" s="8"/>
@@ -7557,7 +7492,7 @@
       </c>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>273</v>
       </c>
@@ -7573,7 +7508,7 @@
       </c>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>276</v>
       </c>
@@ -7587,11 +7522,11 @@
       <c r="E80" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>279</v>
       </c>
@@ -7605,11 +7540,11 @@
       <c r="E81" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>282</v>
       </c>
@@ -7619,17 +7554,17 @@
       <c r="C82" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="8" t="s">
         <v>284</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>286</v>
       </c>
@@ -7639,17 +7574,17 @@
       <c r="C83" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="8" t="s">
         <v>288</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>290</v>
       </c>
@@ -7663,695 +7598,697 @@
       <c r="E84" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>294</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>291</v>
+        <v>7</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>296</v>
+      </c>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D86" s="8"/>
+        <v>298</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E86" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>299</v>
+      </c>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D87" s="8"/>
+        <v>301</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="E87" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>302</v>
+      </c>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="D88" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>305</v>
+      </c>
       <c r="E88" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>13</v>
+        <v>308</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F89" s="9"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>17</v>
+        <v>311</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>311</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D91" s="8"/>
       <c r="E91" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>22</v>
+        <v>317</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>30</v>
+        <v>321</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>320</v>
+      <c r="C94" s="14" t="s">
+        <v>325</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>326</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>324</v>
-      </c>
+      <c r="C95" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D95" s="8"/>
       <c r="E95" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+        <v>329</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F96" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D96" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F96" s="9"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="14" t="s">
         <v>331</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+        <v>334</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="D98" s="8"/>
+      <c r="C98" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>337</v>
+      </c>
       <c r="E98" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+        <v>338</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="D99" s="8"/>
+      <c r="C99" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>340</v>
+      </c>
       <c r="E99" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+        <v>341</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="D100" s="8"/>
+      <c r="C100" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>343</v>
+      </c>
       <c r="E100" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+        <v>344</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>343</v>
+      <c r="C101" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+        <v>347</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C102" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>346</v>
+      <c r="C102" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+        <v>351</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>349</v>
+        <v>45</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+        <v>355</v>
+      </c>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>352</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D104" s="8"/>
       <c r="E104" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+        <v>358</v>
+      </c>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>356</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D105" s="8"/>
       <c r="E105" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+        <v>361</v>
+      </c>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>360</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D106" s="8"/>
       <c r="E106" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F106" s="9"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+        <v>364</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C107" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>363</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F107" s="9"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+        <v>367</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C108" s="17" t="s">
-        <v>366</v>
+      <c r="C108" s="14" t="s">
+        <v>363</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F108" s="9"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
+        <v>369</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="D109" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>372</v>
+      </c>
       <c r="E109" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
+        <v>373</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>369</v>
+        <v>7</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
+        <v>376</v>
+      </c>
+      <c r="F110" s="9"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="D111" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E111" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
+        <v>379</v>
+      </c>
+      <c r="F111" s="9"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>378</v>
+        <v>11</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
+        <v>382</v>
+      </c>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="D113" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="E113" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F114" s="9"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F116" s="9"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>22</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D117" s="15"/>
       <c r="E117" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F117" s="9"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D118" s="8"/>
       <c r="E118" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F118" s="11"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
+        <v>400</v>
+      </c>
+      <c r="F118" s="9"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>30</v>
+        <v>402</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>403</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F119" s="11"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
+        <v>404</v>
+      </c>
+      <c r="F119" s="9"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="D120" s="20"/>
+        <v>406</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="E120" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F120" s="11"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
+        <v>407</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C121" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="D121" s="8"/>
+      <c r="C121" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D121" s="15"/>
       <c r="E121" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>409</v>
+        <v>412</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>413</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F122" s="11"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
+        <v>414</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>40</v>
@@ -8359,2596 +8296,2504 @@
       <c r="C123" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="D123" s="19" t="s">
-        <v>146</v>
+      <c r="D123" s="15" t="s">
+        <v>417</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
+        <v>418</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C124" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F124" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D124" s="20"/>
-      <c r="E124" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F124" s="11"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>419</v>
+        <v>420</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
+        <v>425</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>423</v>
+      <c r="C126" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>428</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
+        <v>429</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D127" s="19" t="s">
+      <c r="C127" s="14" t="s">
         <v>427</v>
       </c>
+      <c r="D127" s="8" t="s">
+        <v>431</v>
+      </c>
       <c r="E127" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
+        <v>432</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>430</v>
+        <v>45</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
+        <v>436</v>
+      </c>
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="D129" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="14" t="s">
         <v>434</v>
       </c>
+      <c r="D129" s="8" t="s">
+        <v>438</v>
+      </c>
       <c r="E129" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
+        <v>439</v>
+      </c>
+      <c r="F129" s="9"/>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>437</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D130" s="8"/>
       <c r="E130" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
+        <v>441</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B131" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F132" s="9"/>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C131" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F131" s="11"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F132" s="9"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="D133" s="8"/>
+      <c r="C133" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>450</v>
+      </c>
       <c r="E133" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
+        <v>451</v>
+      </c>
+      <c r="F133" s="9"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C134" s="17" t="s">
-        <v>369</v>
+      <c r="C134" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
+        <v>454</v>
+      </c>
+      <c r="F134" s="9"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>452</v>
+        <v>45</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>456</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="F135" s="11"/>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
+        <v>457</v>
+      </c>
+      <c r="F135" s="9"/>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>456</v>
+        <v>181</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="F136" s="11"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
+        <v>461</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>459</v>
+        <v>7</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>467</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="F138" s="9"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
+        <v>468</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>466</v>
+        <v>471</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
+        <v>472</v>
+      </c>
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="D140" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E140" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="F140" s="9"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="D141" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="E141" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
+        <v>478</v>
+      </c>
+      <c r="F141" s="9"/>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F142" s="9"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>13</v>
+        <v>483</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C144" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>22</v>
+      <c r="C144" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F144" s="9"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C145" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>30</v>
+      <c r="C145" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>22</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D146" s="8"/>
       <c r="E146" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F146" s="9"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="D147" s="8"/>
       <c r="E147" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="F147" s="9"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
+        <v>496</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D148" s="8"/>
       <c r="E148" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="F148" s="9"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
+        <v>500</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C149" s="17" t="s">
-        <v>498</v>
+      <c r="C149" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="F149" s="9"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
+        <v>502</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C150" s="7" t="s">
-        <v>501</v>
+      <c r="C150" s="14" t="s">
+        <v>504</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
+        <v>505</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C151" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="D151" s="10"/>
+      <c r="C151" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="D151" s="8"/>
       <c r="E151" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
+        <v>508</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C152" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D152" s="10"/>
+      <c r="C152" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="D152" s="8"/>
       <c r="E152" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
+        <v>511</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C153" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="D153" s="10"/>
+      <c r="C153" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="D153" s="8"/>
       <c r="E153" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
+        <v>514</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C154" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="D154" s="10"/>
+      <c r="C154" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="D154" s="8"/>
       <c r="E154" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
+        <v>517</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C155" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="D155" s="10"/>
+      <c r="C155" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D155" s="8"/>
       <c r="E155" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
+        <v>520</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C156" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="D156" s="10"/>
+      <c r="C156" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="D156" s="8"/>
       <c r="E156" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
+        <v>523</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C157" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="D157" s="10"/>
+      <c r="C157" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="D157" s="8"/>
       <c r="E157" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
+        <v>526</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C158" s="17" t="s">
-        <v>525</v>
+      <c r="C158" s="7" t="s">
+        <v>528</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
+        <v>529</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C159" s="17" t="s">
-        <v>528</v>
+      <c r="C159" s="7" t="s">
+        <v>531</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="F159" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
+        <v>532</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C160" s="17" t="s">
-        <v>531</v>
+      <c r="C160" s="7" t="s">
+        <v>534</v>
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
+        <v>535</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="D161" s="8"/>
+        <v>537</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>538</v>
+      </c>
       <c r="E161" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
+        <v>539</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D162" s="8"/>
       <c r="E162" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="F162" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
+        <v>542</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
+        <v>545</v>
+      </c>
+      <c r="F163" s="9"/>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>544</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="D164" s="8"/>
       <c r="E164" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="F164" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
+        <v>548</v>
+      </c>
+      <c r="F164" s="9"/>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D165" s="8"/>
       <c r="E165" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
+        <v>551</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D166" s="8"/>
       <c r="E166" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="F166" s="9"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>553</v>
+        <v>45</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>557</v>
       </c>
       <c r="D167" s="8"/>
       <c r="E167" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="F167" s="9"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>556</v>
+        <v>45</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>560</v>
       </c>
       <c r="D168" s="8"/>
       <c r="E168" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="F168" s="11" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
+        <v>561</v>
+      </c>
+      <c r="F168" s="9"/>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="D169" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="E169" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
+        <v>565</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>562</v>
+        <v>7</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>568</v>
       </c>
       <c r="D170" s="8"/>
       <c r="E170" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F170" s="9"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>565</v>
+        <v>11</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>571</v>
       </c>
       <c r="D171" s="8"/>
       <c r="E171" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="F171" s="9"/>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
+        <v>572</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>568</v>
+        <v>11</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>575</v>
       </c>
       <c r="D172" s="8"/>
       <c r="E172" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="F172" s="9"/>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
+        <v>576</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>572</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="D173" s="8"/>
       <c r="E173" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
+        <v>580</v>
+      </c>
+      <c r="F173" s="9"/>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>576</v>
-      </c>
-      <c r="D174" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>583</v>
+      </c>
       <c r="E174" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="F174" s="9"/>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
+        <v>584</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="D175" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>587</v>
+      </c>
       <c r="E175" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="F175" s="11" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
+        <v>588</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C176" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="D176" s="10"/>
+      <c r="D176" s="14" t="s">
+        <v>590</v>
+      </c>
       <c r="E176" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="F176" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="F176" s="9" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C177" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="D177" s="8"/>
+      <c r="C177" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>593</v>
+      </c>
       <c r="E177" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="F177" s="9"/>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
+        <v>594</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C178" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>591</v>
+      <c r="C178" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>596</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="F178" s="11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
+        <v>597</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>595</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C179" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="D179" s="8"/>
       <c r="E179" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
+        <v>600</v>
+      </c>
+      <c r="F179" s="9"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>598</v>
+        <v>11</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="F180" s="11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
+        <v>603</v>
+      </c>
+      <c r="F180" s="9"/>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>601</v>
+        <v>20</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
+        <v>606</v>
+      </c>
+      <c r="F181" s="9"/>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C182" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>604</v>
+      <c r="C182" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>608</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
+        <v>609</v>
+      </c>
+      <c r="F182" s="9"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B183" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F183" s="9"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F184" s="9"/>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C183" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="D183" s="10"/>
-      <c r="E183" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="F183" s="9"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="B184" s="6" t="s">
+      <c r="C186" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D186" s="8"/>
+      <c r="E186" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F186" s="9"/>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C184" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="D184" s="10" t="s">
+      <c r="C187" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D187" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E184" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="F184" s="9"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="B185" s="6" t="s">
+      <c r="E187" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F187" s="9"/>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C185" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="D185" s="10" t="s">
+      <c r="C188" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D188" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E185" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="F185" s="11"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C186" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="E186" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="F186" s="9"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C187" s="17" t="s">
-        <v>619</v>
-      </c>
-      <c r="D187" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="F187" s="9"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C188" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="D188" s="10" t="s">
-        <v>624</v>
-      </c>
       <c r="E188" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F188" s="9"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="21" t="s">
-        <v>626</v>
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="16" t="s">
+        <v>631</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="D189" s="10" t="s">
-        <v>628</v>
+        <v>20</v>
+      </c>
+      <c r="C189" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="F189" s="11" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
+      </c>
+      <c r="F189" s="9"/>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="16" t="s">
+        <v>634</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C190" s="17" t="s">
-        <v>632</v>
+        <v>11</v>
+      </c>
+      <c r="C190" s="14" t="s">
+        <v>635</v>
       </c>
       <c r="D190" s="8"/>
       <c r="E190" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="F190" s="11"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
+        <v>636</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C191" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="D191" s="10" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>640</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>481</v>
+        <v>641</v>
       </c>
       <c r="F191" s="9"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C192" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="D192" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>640</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="F192" s="9"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="21" t="s">
-        <v>639</v>
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="5" t="s">
+        <v>645</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C193" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C193" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="D193" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="D193" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="E193" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="F193" s="11"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="21" t="s">
-        <v>642</v>
+        <v>647</v>
+      </c>
+      <c r="F193" s="9"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="5" t="s">
+        <v>648</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="D194" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="C194" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>640</v>
+      </c>
       <c r="E194" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="F194" s="11" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
+        <v>650</v>
+      </c>
+      <c r="F194" s="9"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C195" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="D195" s="10" t="s">
-        <v>648</v>
+      <c r="C195" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>640</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C196" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="D196" s="10" t="s">
-        <v>648</v>
+      <c r="C196" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>640</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F196" s="9"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C197" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="D197" s="10" t="s">
-        <v>648</v>
+      <c r="C197" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>640</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C198" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="D198" s="10" t="s">
-        <v>648</v>
-      </c>
+      <c r="C198" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="D198" s="8"/>
       <c r="E198" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F198" s="9"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C199" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="D199" s="10" t="s">
-        <v>648</v>
-      </c>
+      <c r="C199" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="D199" s="8"/>
       <c r="E199" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>663</v>
-      </c>
-      <c r="D200" s="10" t="s">
-        <v>648</v>
+        <v>45</v>
+      </c>
+      <c r="C200" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>668</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="F200" s="9"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>648</v>
+        <v>45</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>671</v>
       </c>
       <c r="E201" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F201" s="9"/>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C202" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="F201" s="11"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C202" s="17" t="s">
-        <v>669</v>
-      </c>
-      <c r="D202" s="8"/>
+      <c r="D202" s="8" t="s">
+        <v>674</v>
+      </c>
       <c r="E202" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="F202" s="9"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C203" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="D203" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="C203" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>677</v>
+      </c>
       <c r="E203" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="D204" s="10" t="s">
-        <v>676</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="D204" s="8"/>
       <c r="E204" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="F204" s="9"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
+        <v>681</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="D205" s="10" t="s">
-        <v>679</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="D205" s="8"/>
       <c r="E205" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="F205" s="11"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
+        <v>685</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="D206" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="D206" s="8"/>
+      <c r="E206" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="F206" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="E206" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="F206" s="9"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
+    </row>
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C207" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>685</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="D207" s="8"/>
       <c r="E207" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="F207" s="9"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
+        <v>691</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C208" s="17" t="s">
-        <v>688</v>
+        <v>466</v>
+      </c>
+      <c r="C208" s="14" t="s">
+        <v>693</v>
       </c>
       <c r="D208" s="8"/>
       <c r="E208" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="F208" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
+        <v>694</v>
+      </c>
+      <c r="F208" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C209" s="17" t="s">
-        <v>692</v>
+        <v>466</v>
+      </c>
+      <c r="C209" s="14" t="s">
+        <v>696</v>
       </c>
       <c r="D209" s="8"/>
       <c r="E209" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="F209" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
+        <v>697</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C210" s="17" t="s">
-        <v>695</v>
+        <v>466</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>699</v>
       </c>
       <c r="D210" s="8"/>
       <c r="E210" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="F210" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
+        <v>700</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C211" s="17" t="s">
-        <v>698</v>
+        <v>466</v>
+      </c>
+      <c r="C211" s="14" t="s">
+        <v>702</v>
       </c>
       <c r="D211" s="8"/>
       <c r="E211" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="F211" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
+        <v>703</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>701</v>
+        <v>466</v>
+      </c>
+      <c r="C212" s="14" t="s">
+        <v>705</v>
       </c>
       <c r="D212" s="8"/>
       <c r="E212" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="F212" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
+        <v>706</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C213" s="17" t="s">
-        <v>704</v>
+        <v>466</v>
+      </c>
+      <c r="C213" s="14" t="s">
+        <v>708</v>
       </c>
       <c r="D213" s="8"/>
       <c r="E213" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="F213" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
+        <v>709</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>707</v>
+        <v>466</v>
+      </c>
+      <c r="C214" s="14" t="s">
+        <v>711</v>
       </c>
       <c r="D214" s="8"/>
       <c r="E214" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="F214" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
+        <v>712</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C215" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="D215" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="C215" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="D215" s="8"/>
       <c r="E215" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="F215" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
+        <v>715</v>
+      </c>
+      <c r="F215" s="9"/>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C216" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="D216" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="C216" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="D216" s="8"/>
       <c r="E216" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="F216" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
+        <v>718</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C217" s="17" t="s">
-        <v>716</v>
-      </c>
-      <c r="D217" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="C217" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="D217" s="8"/>
       <c r="E217" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="F217" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
+        <v>722</v>
+      </c>
+      <c r="F217" s="9"/>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C218" s="17" t="s">
-        <v>719</v>
-      </c>
-      <c r="D218" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D218" s="8"/>
       <c r="E218" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="F218" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
+        <v>725</v>
+      </c>
+      <c r="F218" s="9"/>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C219" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="D219" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="D219" s="8"/>
       <c r="E219" s="7" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="F219" s="9"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C220" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="D220" s="10"/>
+      <c r="C220" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="D220" s="8"/>
       <c r="E220" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="F220" s="11" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
+        <v>731</v>
+      </c>
+      <c r="F220" s="9"/>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C221" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="D221" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="D221" s="8"/>
       <c r="E221" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="F221" s="11" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
+        <v>734</v>
+      </c>
+      <c r="F221" s="9"/>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C222" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="D222" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="D222" s="8"/>
       <c r="E222" s="7" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F222" s="9"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="D223" s="8"/>
       <c r="E223" s="7" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="F223" s="9"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="D224" s="8"/>
-      <c r="E224" s="22" t="s">
-        <v>739</v>
+      <c r="E224" s="7" t="s">
+        <v>743</v>
       </c>
       <c r="F224" s="9"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D225" s="8"/>
       <c r="E225" s="7" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="F225" s="9"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="D226" s="8"/>
-      <c r="E226" s="22" t="s">
-        <v>745</v>
+      <c r="E226" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="F226" s="9"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="D227" s="8"/>
-      <c r="E227" s="22" t="s">
-        <v>748</v>
+      <c r="E227" s="7" t="s">
+        <v>752</v>
       </c>
       <c r="F227" s="9"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D228" s="8"/>
-      <c r="E228" s="22" t="s">
-        <v>751</v>
+      <c r="E228" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="F228" s="9"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="D229" s="8"/>
-      <c r="E229" s="22" t="s">
-        <v>754</v>
+      <c r="E229" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="F229" s="9"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D230" s="8"/>
-      <c r="E230" s="22" t="s">
-        <v>757</v>
+      <c r="E230" s="7" t="s">
+        <v>761</v>
       </c>
       <c r="F230" s="9"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="D231" s="8"/>
       <c r="E231" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="F231" s="11"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
+        <v>764</v>
+      </c>
+      <c r="F231" s="9"/>
+    </row>
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="D232" s="8"/>
       <c r="E232" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="F232" s="11"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
+        <v>767</v>
+      </c>
+      <c r="F232" s="9"/>
+    </row>
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="D233" s="8"/>
       <c r="E233" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="F233" s="11"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
+        <v>770</v>
+      </c>
+      <c r="F233" s="9"/>
+    </row>
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="D234" s="8"/>
       <c r="E234" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="F234" s="11"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
+        <v>773</v>
+      </c>
+      <c r="F234" s="9"/>
+    </row>
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D235" s="8"/>
       <c r="E235" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="F235" s="11"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
+        <v>776</v>
+      </c>
+      <c r="F235" s="9"/>
+    </row>
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="D236" s="8"/>
-      <c r="E236" s="22" t="s">
-        <v>775</v>
-      </c>
-      <c r="F236" s="11"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
+      <c r="E236" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="F236" s="9"/>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C237" s="7" t="s">
-        <v>777</v>
+      <c r="C237" s="14" t="s">
+        <v>781</v>
       </c>
       <c r="D237" s="8"/>
       <c r="E237" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="F237" s="11"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
+        <v>782</v>
+      </c>
+      <c r="F237" s="9"/>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C238" s="7" t="s">
-        <v>780</v>
+      <c r="C238" s="14" t="s">
+        <v>784</v>
       </c>
       <c r="D238" s="8"/>
       <c r="E238" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="F238" s="11"/>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
+        <v>785</v>
+      </c>
+      <c r="F238" s="9"/>
+    </row>
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C239" s="7" t="s">
-        <v>783</v>
+      <c r="C239" s="14" t="s">
+        <v>787</v>
       </c>
       <c r="D239" s="8"/>
       <c r="E239" s="7" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="F239" s="9"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C240" s="7" t="s">
-        <v>786</v>
+      <c r="C240" s="14" t="s">
+        <v>790</v>
       </c>
       <c r="D240" s="8"/>
       <c r="E240" s="7" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="F240" s="9"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="D241" s="8"/>
       <c r="E241" s="7" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="F241" s="9"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C242" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="D242" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>797</v>
+      </c>
       <c r="E242" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="F242" s="11"/>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
+        <v>798</v>
+      </c>
+      <c r="F242" s="9"/>
+    </row>
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C243" s="17" t="s">
-        <v>795</v>
+      <c r="C243" s="14" t="s">
+        <v>800</v>
       </c>
       <c r="D243" s="8"/>
       <c r="E243" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="F243" s="11"/>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
+        <v>801</v>
+      </c>
+      <c r="F243" s="9"/>
+    </row>
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C244" s="17" t="s">
-        <v>798</v>
+        <v>45</v>
+      </c>
+      <c r="C244" s="14" t="s">
+        <v>803</v>
       </c>
       <c r="D244" s="8"/>
       <c r="E244" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="F244" s="11"/>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
+        <v>804</v>
+      </c>
+      <c r="F244" s="9"/>
+    </row>
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C245" s="17" t="s">
-        <v>801</v>
+        <v>45</v>
+      </c>
+      <c r="C245" s="14" t="s">
+        <v>806</v>
       </c>
       <c r="D245" s="8"/>
       <c r="E245" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="F245" s="11"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
+        <v>807</v>
+      </c>
+      <c r="F245" s="9"/>
+    </row>
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C246" s="7" t="s">
-        <v>804</v>
+      <c r="C246" s="14" t="s">
+        <v>809</v>
       </c>
       <c r="D246" s="8"/>
       <c r="E246" s="7" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="F246" s="9"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C247" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="D247" s="10" t="s">
-        <v>808</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="D247" s="8"/>
       <c r="E247" s="7" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="F247" s="9"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C248" s="17" t="s">
-        <v>811</v>
+      <c r="C248" s="14" t="s">
+        <v>815</v>
       </c>
       <c r="D248" s="8"/>
       <c r="E248" s="7" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="F248" s="9"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C249" s="17" t="s">
-        <v>814</v>
+      <c r="C249" s="14" t="s">
+        <v>818</v>
       </c>
       <c r="D249" s="8"/>
       <c r="E249" s="7" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="F249" s="9"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C250" s="17" t="s">
-        <v>817</v>
+        <v>63</v>
+      </c>
+      <c r="C250" s="14" t="s">
+        <v>821</v>
       </c>
       <c r="D250" s="8"/>
       <c r="E250" s="7" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="F250" s="9"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C251" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="D251" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="C251" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>825</v>
+      </c>
       <c r="E251" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="F251" s="9"/>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
+        <v>826</v>
+      </c>
+      <c r="F251" s="9" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C252" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="D252" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="C252" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>830</v>
+      </c>
       <c r="E252" s="7" t="s">
-        <v>824</v>
-      </c>
-      <c r="F252" s="9"/>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
+        <v>831</v>
+      </c>
+      <c r="F252" s="9" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C253" s="17" t="s">
-        <v>826</v>
-      </c>
-      <c r="D253" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>835</v>
+      </c>
       <c r="E253" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="F253" s="9"/>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
+        <v>836</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C254" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="D254" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>839</v>
+      </c>
       <c r="E254" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="F254" s="9"/>
-    </row>
-    <row r="255" ht="15.75" customHeight="1">
+        <v>840</v>
+      </c>
+      <c r="F254" s="9" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C255" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="D255" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>844</v>
+      </c>
       <c r="E255" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="F255" s="9"/>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
+        <v>845</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C256" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="D256" s="10" t="s">
-        <v>836</v>
+      <c r="C256" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>849</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>837</v>
-      </c>
-      <c r="F256" s="11" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="257" ht="15.75" customHeight="1">
+        <v>850</v>
+      </c>
+      <c r="F256" s="9" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C257" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="D257" s="10" t="s">
-        <v>841</v>
+      <c r="C257" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>854</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="F257" s="11" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="258" ht="15.75" customHeight="1">
+        <v>855</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C258" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="D258" s="10" t="s">
-        <v>846</v>
+      <c r="C258" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>858</v>
       </c>
       <c r="E258" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="F258" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="259" ht="15.75" customHeight="1">
+        <v>859</v>
+      </c>
+      <c r="F258" s="9" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="D259" s="10" t="s">
-        <v>850</v>
+        <v>861</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>862</v>
       </c>
       <c r="E259" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="F259" s="11" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="260" ht="15.75" customHeight="1">
+        <v>863</v>
+      </c>
+      <c r="F259" s="9"/>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C260" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="D260" s="10" t="s">
-        <v>855</v>
+      <c r="C260" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="D260" s="8" t="s">
+        <v>866</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="F260" s="11" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="261" ht="15.75" customHeight="1">
+        <v>867</v>
+      </c>
+      <c r="F260" s="9"/>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="D261" s="10" t="s">
-        <v>860</v>
+        <v>869</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>870</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="F261" s="11" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="262" ht="15.75" customHeight="1">
+        <v>871</v>
+      </c>
+      <c r="F261" s="9"/>
+    </row>
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C262" s="17" t="s">
-        <v>864</v>
-      </c>
-      <c r="D262" s="10" t="s">
-        <v>865</v>
-      </c>
+      <c r="C262" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D262" s="8"/>
       <c r="E262" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="F262" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="263" ht="15.75" customHeight="1">
+        <v>874</v>
+      </c>
+      <c r="F262" s="9"/>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C263" s="17" t="s">
-        <v>868</v>
-      </c>
-      <c r="D263" s="10" t="s">
-        <v>869</v>
+      <c r="C263" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>877</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="F263" s="11" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="B264" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="F263" s="9"/>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="B264" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C264" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="D264" s="10" t="s">
-        <v>873</v>
-      </c>
-      <c r="E264" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="F264" s="9"/>
-    </row>
-    <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C265" s="17" t="s">
-        <v>876</v>
-      </c>
-      <c r="D265" s="10" t="s">
-        <v>877</v>
-      </c>
-      <c r="E265" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="F265" s="9"/>
-    </row>
-    <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C266" s="7" t="s">
+      <c r="C264" s="19" t="s">
         <v>880</v>
       </c>
-      <c r="D266" s="10" t="s">
+      <c r="D264" s="20" t="s">
         <v>881</v>
       </c>
-      <c r="E266" s="7" t="s">
+      <c r="E264" s="21" t="s">
         <v>882</v>
       </c>
-      <c r="F266" s="9"/>
-    </row>
-    <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>884</v>
-      </c>
-      <c r="D267" s="8"/>
-      <c r="E267" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="F267" s="9"/>
-    </row>
-    <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>887</v>
-      </c>
-      <c r="D268" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="E268" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="F268" s="9"/>
-    </row>
-    <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="23" t="s">
-        <v>890</v>
-      </c>
-      <c r="B269" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="C269" s="25" t="s">
-        <v>891</v>
-      </c>
-      <c r="D269" s="26" t="s">
-        <v>892</v>
-      </c>
-      <c r="E269" s="27" t="s">
-        <v>893</v>
-      </c>
-      <c r="F269" s="28"/>
+      <c r="F264" s="22"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A269 D2:D269"/>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B269">
-      <formula1>"Scenario,Agenda,Act,Location,Enemy,Treachery,Asset,Story"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B264" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"ScenarioReference,Agenda,Act,Location,Enemy,Treachery,Asset,Story"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="D2:D264 A2:A264" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>